--- a/Result/checksunmy.xlsx
+++ b/Result/checksunmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS120"/>
+  <dimension ref="A1:AS126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>164406088</v>
+        <v>653038997</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>58451439</v>
+        <v>502744325</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>-334710539</v>
+        <v>496173258</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>403696773</v>
+        <v>629204071</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>67153660</v>
+        <v>667679632</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>387985641</v>
+        <v>687287125</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>84936136</v>
+        <v>111443358</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>377139226</v>
+        <v>193356483</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>442898156</v>
+        <v>216858260</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>140571162</v>
+        <v>-136254675</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>223386746</v>
+        <v>18265990</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-143596672</v>
+        <v>118174413</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>682147</v>
+        <v>1380099</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>571711</v>
+        <v>1312039</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>-50276</v>
+        <v>1507599</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>182591</v>
+        <v>418126</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>-284923</v>
+        <v>529155</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>150432</v>
+        <v>461446</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>515361</v>
+        <v>114560</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>1025251</v>
+        <v>254809</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>1407443</v>
+        <v>199836</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>-279826</v>
+        <v>-546370</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>-211173</v>
+        <v>-314982</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>-1096429</v>
+        <v>-564449</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>3584</v>
+        <v>11385</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>6141</v>
+        <v>26722</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>892</v>
+        <v>29377</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>1268</v>
+        <v>27438</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-5324</v>
+        <v>27083</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-6376</v>
+        <v>27560</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>6533</v>
+        <v>24989</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>25905</v>
+        <v>30715</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>34861</v>
+        <v>31493</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>19637</v>
+        <v>15533</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>6502</v>
+        <v>4302</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>-925</v>
+        <v>462</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>114531346</v>
+        <v>515977653</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>-63089173</v>
+        <v>312812633</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>-122350234</v>
+        <v>487775476</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7908,7 +7908,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>-387232376</v>
+        <v>336247313</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>173967202</v>
+        <v>563098115</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>536371711</v>
+        <v>621857405</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>788678683</v>
+        <v>708639588</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>201934604</v>
+        <v>134647312</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>73753999</v>
+        <v>-163436501</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>-65198994</v>
+        <v>-376554368</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>187196309</v>
+        <v>-134347892</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>11731695</v>
+        <v>-42491866</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>167482550</v>
+        <v>1342449270</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>1440702550</v>
+        <v>1455573533</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>461518673</v>
+        <v>1642899353</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>707158781</v>
+        <v>740823803</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>-335301455</v>
+        <v>1031183174</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>663492262</v>
+        <v>922982666</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>467807939</v>
+        <v>-169426216</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>350172438</v>
+        <v>166064314</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>517888418</v>
+        <v>326424401</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>-434142917</v>
+        <v>-862796152</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>1016312191</v>
+        <v>979314111</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>-258398014</v>
+        <v>2325736195</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>43211793</v>
+        <v>169854874</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>25725949</v>
+        <v>150042415</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>-32516035</v>
+        <v>98420253</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>-34304519</v>
+        <v>108038097</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>-138634824</v>
+        <v>56785602</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>114003290</v>
+        <v>106750907</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>160947600</v>
+        <v>117756974</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -13120,7 +13120,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>262951290</v>
+        <v>220564120</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>16932998</v>
+        <v>-32661047</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>-18604984</v>
+        <v>-83153712</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>-67530864</v>
+        <v>-67930831</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>-24185381</v>
+        <v>-4247937</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>2081147743</v>
+        <v>947940564</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>719805636</v>
+        <v>537373275</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>-321464586</v>
+        <v>497783408</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>-2276283473</v>
+        <v>-963172579</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>-2613469313</v>
+        <v>334006185</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>-584404583</v>
+        <v>368901485</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>1143076294</v>
+        <v>972024323</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>2431036952</v>
+        <v>2297357983</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>1403652577</v>
+        <v>263620684</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>170034600</v>
+        <v>-984220949</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>516438546</v>
+        <v>-490488812</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>-450346509</v>
+        <v>551845832</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>21865952</v>
+        <v>57291536</v>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>7057144</v>
+        <v>49268669</v>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>-19908724</v>
+        <v>47147032</v>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>16956723</v>
+        <v>87459409</v>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>-22259816</v>
+        <v>96028809</v>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>15303474</v>
+        <v>95735469</v>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>18468861</v>
+        <v>68481142</v>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>64471341</v>
+        <v>89922376</v>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
@@ -17669,7 +17669,7 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>51752282</v>
+        <v>46841651</v>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>52033825</v>
+        <v>9858586</v>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>53817284</v>
+        <v>16579333</v>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>28679713</v>
+        <v>-37852192</v>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>-2796</v>
+        <v>2551</v>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>-624</v>
+        <v>3768</v>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>-945</v>
+        <v>3392</v>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>-1256</v>
+        <v>4594</v>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>3642</v>
+        <v>3714</v>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>4991</v>
+        <v>4954</v>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>6603</v>
+        <v>5812</v>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>750</v>
+        <v>225</v>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         </is>
       </c>
       <c r="AB106" t="n">
-        <v>-654</v>
+        <v>-806</v>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         </is>
       </c>
       <c r="AB107" t="n">
-        <v>-753</v>
+        <v>-898</v>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         </is>
       </c>
       <c r="AB108" t="n">
-        <v>-678</v>
+        <v>-35</v>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         </is>
       </c>
       <c r="AB109" t="n">
-        <v>617</v>
+        <v>-213</v>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         </is>
       </c>
       <c r="AB110" t="n">
-        <v>205219000</v>
+        <v>954030249</v>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         </is>
       </c>
       <c r="AB111" t="n">
-        <v>260669177</v>
+        <v>1591777032</v>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -20854,26 +20854,26 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.66</v>
+        <v>1.46</v>
       </c>
       <c r="D112" t="n">
-        <v>8838.028</v>
+        <v>8175.754</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="H112" t="n">
-        <v>30.75</v>
+        <v>31.2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>1.13</v>
+        <v>-0.32</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="N112" t="n">
@@ -20900,7 +20900,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
@@ -20910,27 +20910,27 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="U112" t="n">
         <v>-90</v>
       </c>
       <c r="V112" t="n">
-        <v>22</v>
+        <v>-3</v>
       </c>
       <c r="W112" t="n">
-        <v>20</v>
+        <v>-8</v>
       </c>
       <c r="X112" t="b">
         <v>0</v>
@@ -20947,11 +20947,11 @@
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="AB112" t="n">
-        <v>446236724</v>
+        <v>1591777032</v>
       </c>
       <c r="AC112" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
       </c>
       <c r="AR112" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS112" t="inlineStr">
@@ -21034,7 +21034,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -21043,26 +21043,26 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>-0.98</v>
+        <v>0.66</v>
       </c>
       <c r="D113" t="n">
-        <v>8641.74</v>
+        <v>8838.028</v>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H113" t="n">
-        <v>30.55</v>
+        <v>30.75</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>1.77</v>
+        <v>1.13</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="N113" t="n">
@@ -21099,30 +21099,30 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="U113" t="n">
         <v>-90</v>
       </c>
       <c r="V113" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="W113" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y113" t="inlineStr">
         <is>
@@ -21136,11 +21136,11 @@
       </c>
       <c r="AA113" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>-246676522</v>
+        <v>1077363968</v>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
@@ -21223,7 +21223,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-09</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -21232,26 +21232,26 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.97</v>
+        <v>0.66</v>
       </c>
       <c r="D114" t="n">
-        <v>14306.874</v>
+        <v>8838.028</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.21</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H114" t="n">
-        <v>30.85</v>
+        <v>30.75</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>0.8</v>
+        <v>1.13</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -21278,40 +21278,40 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="U114" t="n">
         <v>-90</v>
       </c>
       <c r="V114" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="W114" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="X114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y114" t="inlineStr">
         <is>
@@ -21325,11 +21325,11 @@
       </c>
       <c r="AA114" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AB114" t="n">
-        <v>840640143</v>
+        <v>1077363968</v>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
       </c>
       <c r="AR114" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS114" t="inlineStr">
@@ -21412,7 +21412,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -21421,19 +21421,19 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>-0.16</v>
+        <v>-0.98</v>
       </c>
       <c r="D115" t="n">
-        <v>13820.764</v>
+        <v>8641.74</v>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.26</v>
+        <v>0.98</v>
       </c>
       <c r="H115" t="n">
         <v>30.55</v>
@@ -21467,50 +21467,58 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>-0.86</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="U115" t="n">
         <v>-90</v>
       </c>
       <c r="V115" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="W115" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="X115" t="b">
         <v>1</v>
       </c>
-      <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AB115" t="n">
-        <v>767285928</v>
+        <v>1123899575</v>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
@@ -21593,7 +21601,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-08</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -21602,26 +21610,26 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2.15</v>
+        <v>-0.98</v>
       </c>
       <c r="D116" t="n">
-        <v>26935.355</v>
+        <v>8641.74</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>22.68</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.35</v>
+        <v>0.98</v>
       </c>
       <c r="H116" t="n">
-        <v>30.6</v>
+        <v>30.55</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -21648,50 +21656,58 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="Q116" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="U116" t="n">
         <v>-90</v>
       </c>
       <c r="V116" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="W116" t="n">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="X116" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AB116" t="n">
-        <v>995487771</v>
+        <v>1123899575</v>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
@@ -21762,7 +21778,7 @@
       </c>
       <c r="AR116" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS116" t="inlineStr">
@@ -21774,7 +21790,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -21783,26 +21799,26 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D117" t="n">
-        <v>12364.287</v>
+        <v>14306.874</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="H117" t="n">
-        <v>29.95</v>
+        <v>30.85</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -21816,7 +21832,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="N117" t="n">
@@ -21834,45 +21850,53 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="U117" t="n">
         <v>-90</v>
       </c>
       <c r="V117" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="W117" t="n">
-        <v>-23</v>
+        <v>14</v>
       </c>
       <c r="X117" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA117" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AB117" t="n">
-        <v>490467712</v>
+        <v>972903241</v>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
@@ -21943,7 +21967,7 @@
       </c>
       <c r="AR117" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS117" t="inlineStr">
@@ -21955,7 +21979,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-05-07</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -21964,26 +21988,26 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="D118" t="n">
-        <v>6581.95</v>
+        <v>14306.874</v>
       </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="H118" t="n">
-        <v>29.35</v>
+        <v>30.85</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>5.63</v>
+        <v>0.8</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -21997,7 +22021,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="N118" t="n">
@@ -22010,50 +22034,58 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>-0.95</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="U118" t="n">
         <v>-90</v>
       </c>
       <c r="V118" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="W118" t="n">
-        <v>-22</v>
+        <v>14</v>
       </c>
       <c r="X118" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="Z118" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AB118" t="n">
-        <v>-136158684</v>
+        <v>972903241</v>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
@@ -22136,7 +22168,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -22145,26 +22177,26 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.34</v>
+        <v>-0.16</v>
       </c>
       <c r="D119" t="n">
-        <v>10776.078</v>
+        <v>13820.764</v>
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>11.64</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>1.26</v>
       </c>
       <c r="H119" t="n">
-        <v>29.35</v>
+        <v>30.55</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>5.63</v>
+        <v>1.77</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -22178,7 +22210,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="N119" t="n">
@@ -22191,50 +22223,50 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Q119" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="U119" t="n">
         <v>-90</v>
       </c>
       <c r="V119" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="W119" t="n">
-        <v>-23</v>
+        <v>4</v>
       </c>
       <c r="X119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AB119" t="n">
-        <v>375088326</v>
+        <v>167086768</v>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
@@ -22305,7 +22337,7 @@
       </c>
       <c r="AR119" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS119" t="inlineStr">
@@ -22317,7 +22349,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -22326,26 +22358,26 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="D120" t="n">
-        <v>8902.268</v>
+        <v>13820.764</v>
       </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>11.64</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="H120" t="n">
-        <v>29.25</v>
+        <v>30.55</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>5.95</v>
+        <v>1.77</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -22359,7 +22391,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="N120" t="n">
@@ -22372,50 +22404,50 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Q120" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="U120" t="n">
         <v>-90</v>
       </c>
       <c r="V120" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="W120" t="n">
-        <v>-22</v>
+        <v>4</v>
       </c>
       <c r="X120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr"/>
       <c r="AA120" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AB120" t="n">
-        <v>-358204614</v>
+        <v>167086768</v>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
@@ -22490,6 +22522,1092 @@
         </is>
       </c>
       <c r="AS120" t="inlineStr">
+        <is>
+          <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D121" t="n">
+        <v>26935.355</v>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H121" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>10264</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="U121" t="n">
+        <v>-90</v>
+      </c>
+      <c r="V121" t="n">
+        <v>38</v>
+      </c>
+      <c r="W121" t="n">
+        <v>-3</v>
+      </c>
+      <c r="X121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AB121" t="n">
+        <v>-2816760</v>
+      </c>
+      <c r="AC121" t="inlineStr">
+        <is>
+          <t>台泥</t>
+        </is>
+      </c>
+      <c r="AD121" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AE121" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF121" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="AG121" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AI121" t="inlineStr">
+        <is>
+          <t>23.29%</t>
+        </is>
+      </c>
+      <c r="AJ121" t="inlineStr">
+        <is>
+          <t>10.88%</t>
+        </is>
+      </c>
+      <c r="AK121" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="AL121" t="inlineStr">
+        <is>
+          <t>234842</t>
+        </is>
+      </c>
+      <c r="AM121" t="inlineStr">
+        <is>
+          <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
+        </is>
+      </c>
+      <c r="AN121" t="inlineStr">
+        <is>
+          <t>台泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AO121" t="inlineStr">
+        <is>
+          <t>水泥工業右下</t>
+        </is>
+      </c>
+      <c r="AP121" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="AQ121" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AR121" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AS121" t="inlineStr">
+        <is>
+          <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D122" t="n">
+        <v>26935.355</v>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H122" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>10264</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="U122" t="n">
+        <v>-90</v>
+      </c>
+      <c r="V122" t="n">
+        <v>38</v>
+      </c>
+      <c r="W122" t="n">
+        <v>-3</v>
+      </c>
+      <c r="X122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AB122" t="n">
+        <v>-2816760</v>
+      </c>
+      <c r="AC122" t="inlineStr">
+        <is>
+          <t>台泥</t>
+        </is>
+      </c>
+      <c r="AD122" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AE122" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF122" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="AG122" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AI122" t="inlineStr">
+        <is>
+          <t>23.29%</t>
+        </is>
+      </c>
+      <c r="AJ122" t="inlineStr">
+        <is>
+          <t>10.88%</t>
+        </is>
+      </c>
+      <c r="AK122" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="AL122" t="inlineStr">
+        <is>
+          <t>234842</t>
+        </is>
+      </c>
+      <c r="AM122" t="inlineStr">
+        <is>
+          <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
+        </is>
+      </c>
+      <c r="AN122" t="inlineStr">
+        <is>
+          <t>台泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AO122" t="inlineStr">
+        <is>
+          <t>水泥工業右下</t>
+        </is>
+      </c>
+      <c r="AP122" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="AQ122" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AR122" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AS122" t="inlineStr">
+        <is>
+          <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>12364.287</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H123" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>10264</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>-0.85</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>-0.98</t>
+        </is>
+      </c>
+      <c r="U123" t="n">
+        <v>-90</v>
+      </c>
+      <c r="V123" t="n">
+        <v>13</v>
+      </c>
+      <c r="W123" t="n">
+        <v>-23</v>
+      </c>
+      <c r="X123" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="AB123" t="n">
+        <v>-1227940171</v>
+      </c>
+      <c r="AC123" t="inlineStr">
+        <is>
+          <t>台泥</t>
+        </is>
+      </c>
+      <c r="AD123" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AE123" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF123" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="AG123" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AI123" t="inlineStr">
+        <is>
+          <t>23.29%</t>
+        </is>
+      </c>
+      <c r="AJ123" t="inlineStr">
+        <is>
+          <t>10.88%</t>
+        </is>
+      </c>
+      <c r="AK123" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="AL123" t="inlineStr">
+        <is>
+          <t>234842</t>
+        </is>
+      </c>
+      <c r="AM123" t="inlineStr">
+        <is>
+          <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
+        </is>
+      </c>
+      <c r="AN123" t="inlineStr">
+        <is>
+          <t>台泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AO123" t="inlineStr">
+        <is>
+          <t>水泥工業右下</t>
+        </is>
+      </c>
+      <c r="AP123" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="AQ123" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AR123" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AS123" t="inlineStr">
+        <is>
+          <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>6581.95</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H124" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>10264</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>-1.01</t>
+        </is>
+      </c>
+      <c r="U124" t="n">
+        <v>-90</v>
+      </c>
+      <c r="V124" t="n">
+        <v>10</v>
+      </c>
+      <c r="W124" t="n">
+        <v>-22</v>
+      </c>
+      <c r="X124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr">
+        <is>
+          <t>-22</t>
+        </is>
+      </c>
+      <c r="AB124" t="n">
+        <v>-2164318381</v>
+      </c>
+      <c r="AC124" t="inlineStr">
+        <is>
+          <t>台泥</t>
+        </is>
+      </c>
+      <c r="AD124" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AE124" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF124" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="AG124" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AI124" t="inlineStr">
+        <is>
+          <t>23.29%</t>
+        </is>
+      </c>
+      <c r="AJ124" t="inlineStr">
+        <is>
+          <t>10.88%</t>
+        </is>
+      </c>
+      <c r="AK124" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="AL124" t="inlineStr">
+        <is>
+          <t>234842</t>
+        </is>
+      </c>
+      <c r="AM124" t="inlineStr">
+        <is>
+          <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
+        </is>
+      </c>
+      <c r="AN124" t="inlineStr">
+        <is>
+          <t>台泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AO124" t="inlineStr">
+        <is>
+          <t>水泥工業右下</t>
+        </is>
+      </c>
+      <c r="AP124" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="AQ124" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AR124" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AS124" t="inlineStr">
+        <is>
+          <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D125" t="n">
+        <v>10776.078</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H125" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>10264</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>-1.01</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>-1.03</t>
+        </is>
+      </c>
+      <c r="U125" t="n">
+        <v>-90</v>
+      </c>
+      <c r="V125" t="n">
+        <v>7</v>
+      </c>
+      <c r="W125" t="n">
+        <v>-23</v>
+      </c>
+      <c r="X125" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="AB125" t="n">
+        <v>-2435987606</v>
+      </c>
+      <c r="AC125" t="inlineStr">
+        <is>
+          <t>台泥</t>
+        </is>
+      </c>
+      <c r="AD125" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AE125" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF125" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="AG125" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AI125" t="inlineStr">
+        <is>
+          <t>23.29%</t>
+        </is>
+      </c>
+      <c r="AJ125" t="inlineStr">
+        <is>
+          <t>10.88%</t>
+        </is>
+      </c>
+      <c r="AK125" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="AL125" t="inlineStr">
+        <is>
+          <t>234842</t>
+        </is>
+      </c>
+      <c r="AM125" t="inlineStr">
+        <is>
+          <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
+        </is>
+      </c>
+      <c r="AN125" t="inlineStr">
+        <is>
+          <t>台泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AO125" t="inlineStr">
+        <is>
+          <t>水泥工業右下</t>
+        </is>
+      </c>
+      <c r="AP125" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="AQ125" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AR125" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AS125" t="inlineStr">
+        <is>
+          <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>8902.268</v>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>10264</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>-1.07</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>-1.03</t>
+        </is>
+      </c>
+      <c r="U126" t="n">
+        <v>-90</v>
+      </c>
+      <c r="V126" t="n">
+        <v>6</v>
+      </c>
+      <c r="W126" t="n">
+        <v>-22</v>
+      </c>
+      <c r="X126" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr">
+        <is>
+          <t>-22</t>
+        </is>
+      </c>
+      <c r="AB126" t="n">
+        <v>-3407790383</v>
+      </c>
+      <c r="AC126" t="inlineStr">
+        <is>
+          <t>台泥</t>
+        </is>
+      </c>
+      <c r="AD126" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AE126" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF126" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="AG126" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AI126" t="inlineStr">
+        <is>
+          <t>23.29%</t>
+        </is>
+      </c>
+      <c r="AJ126" t="inlineStr">
+        <is>
+          <t>10.88%</t>
+        </is>
+      </c>
+      <c r="AK126" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="AL126" t="inlineStr">
+        <is>
+          <t>234842</t>
+        </is>
+      </c>
+      <c r="AM126" t="inlineStr">
+        <is>
+          <t>水泥52.12%、混凝土22.71%、社會轉型能源10.52%、儲能及充電椿6.08%、其他4.35%、電池3.49%、再生能源(RE)0.42%、廢棄物處理0.30% (2024年)</t>
+        </is>
+      </c>
+      <c r="AN126" t="inlineStr">
+        <is>
+          <t>台泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AO126" t="inlineStr">
+        <is>
+          <t>水泥工業右下</t>
+        </is>
+      </c>
+      <c r="AP126" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="AQ126" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AR126" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AS126" t="inlineStr">
         <is>
           <t>** 水泥 - 石灰石、水泥生料、水泥熟料、水泥成品、預拌混凝土</t>
         </is>

--- a/Result/checksunmy.xlsx
+++ b/Result/checksunmy.xlsx
@@ -725,13 +725,13 @@
         <v>-2</v>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-20</v>
+        <v>-16</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -945,16 +945,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B3" t="n">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
         <v>-1</v>
       </c>
       <c r="D3" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1168,20 +1168,20 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="D4" t="n">
-        <v>-6</v>
+        <v>-16</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1391,16 +1391,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C5" t="n">
         <v>-1</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1614,20 +1614,20 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1840,17 +1840,17 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2060,20 +2060,20 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2283,20 +2283,20 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2506,20 +2506,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -3171,16 +3171,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B13" t="n">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3402,20 +3402,20 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B14" t="n">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C14" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D14" t="n">
-        <v>-1</v>
+        <v>-23</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3633,20 +3633,20 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C15" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3864,20 +3864,20 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D16" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4095,20 +4095,20 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4326,20 +4326,20 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4557,20 +4557,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4788,20 +4788,20 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5011,20 +5011,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5692,16 +5692,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -5911,16 +5911,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
         <v>1</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6136,10 +6136,10 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6349,16 +6349,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D28" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6787,10 +6787,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -7006,16 +7006,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -7228,17 +7228,17 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -7444,20 +7444,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -8097,20 +8097,20 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -8328,16 +8328,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C36" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -8555,16 +8555,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -8782,20 +8782,20 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -9001,20 +9001,20 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D39" t="n">
-        <v>-33</v>
+        <v>-4</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -9220,20 +9220,20 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" t="n">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>-4</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -9439,20 +9439,20 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B41" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>94</v>
+        <v>-27</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -9658,20 +9658,20 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -9877,20 +9877,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10533,13 +10533,13 @@
         <v>-2</v>
       </c>
       <c r="B46" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -10749,13 +10749,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C47" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -10971,13 +10971,13 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C48" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -11187,16 +11187,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -11409,13 +11409,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C50" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D50" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -11625,10 +11625,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -11844,20 +11844,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -12063,20 +12063,20 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -12282,20 +12282,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -12935,20 +12935,20 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="n">
         <v>1</v>
       </c>
-      <c r="B57" t="n">
-        <v>3</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -13166,10 +13166,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
         <v>1</v>
-      </c>
-      <c r="B58" t="n">
-        <v>3</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -13393,16 +13393,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
         <v>-1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -13612,10 +13612,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
         <v>-3</v>
@@ -13831,13 +13831,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -14050,13 +14050,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" t="n">
         <v>2</v>
       </c>
-      <c r="B62" t="n">
-        <v>3</v>
-      </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -14269,16 +14269,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
         <v>2</v>
       </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -14491,10 +14491,10 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -14707,16 +14707,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -15360,20 +15360,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B68" t="n">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -15591,20 +15591,20 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -15822,16 +15822,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C70" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -16053,16 +16053,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -16276,16 +16276,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -16499,20 +16499,20 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B73" t="n">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -16722,20 +16722,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>77</v>
+        <v>-18</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -16945,20 +16945,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -17168,20 +17168,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -17841,20 +17841,20 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -18064,13 +18064,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -18286,13 +18286,13 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -18502,16 +18502,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -18721,13 +18721,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
         <v>1</v>
       </c>
-      <c r="B83" t="n">
-        <v>2</v>
-      </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -18940,16 +18940,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
         <v>2</v>
       </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
       <c r="D84" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -19162,17 +19162,17 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -19381,10 +19381,10 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -19597,16 +19597,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -20253,17 +20253,17 @@
         <v>-2</v>
       </c>
       <c r="B90" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C90" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-24</v>
+        <v>-3</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -20469,16 +20469,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B91" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C91" t="n">
         <v>-1</v>
       </c>
       <c r="D91" t="n">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -20688,20 +20688,20 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B92" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C92" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D92" t="n">
-        <v>-10</v>
+        <v>-26</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -20907,20 +20907,20 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C93" t="n">
         <v>-1</v>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -21126,20 +21126,20 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B94" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D94" t="n">
         <v>1</v>
       </c>
-      <c r="D94" t="n">
-        <v>9</v>
-      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -21345,16 +21345,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B95" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -21567,13 +21567,13 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -21786,17 +21786,17 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -22002,20 +22002,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -22655,16 +22655,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -22874,16 +22874,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D102" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -23096,10 +23096,10 @@
         <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>32</v>
@@ -23312,20 +23312,20 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C104" t="n">
         <v>-1</v>
       </c>
       <c r="D104" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -23531,20 +23531,20 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D105" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -23750,20 +23750,20 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -23969,20 +23969,20 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C107" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>94</v>
+        <v>-18</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -24188,20 +24188,20 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -24407,20 +24407,20 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
